--- a/Input Documents/CR/Review/PO_SAG_CR_WEB_Review.xlsx
+++ b/Input Documents/CR/Review/PO_SAG_CR_WEB_Review.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship\SAG\WEB_SWProcess_Documents\Input Documents\CR\Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Repos\sag\WEB_SWProcess_Documents\Input Documents\CR\Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F04AB0-210D-4BD0-918B-D537C61D1D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="1872" yWindow="1872" windowWidth="12300" windowHeight="6180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Entry Date</t>
   </si>
@@ -126,16 +127,31 @@
   </si>
   <si>
     <t>The Definition shall be for example like that: "The project conists of Website and Dashboard. The Website is for showing our porduct and enable the user the place an order. The Dashboard is for Admin control to show an ovweview and statistics about the product."</t>
+  </si>
+  <si>
+    <t>CR_REVIEW_007</t>
+  </si>
+  <si>
+    <t>Ammar Yasser</t>
+  </si>
+  <si>
+    <t>2//Project Description/ Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">points 3 &amp; 4 are details about the project that will be disscussed in later documents </t>
+  </si>
+  <si>
+    <t xml:space="preserve">points 3 &amp; 4 shall be removed </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -159,6 +175,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -216,14 +236,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -242,191 +262,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -660,14 +496,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H13:H17"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -865,13 +701,27 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="6">
+        <v>44849</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H8" s="5" t="s">
         <v>6</v>
       </c>
@@ -890,18 +740,19 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$H2 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$H2= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Open,Closed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Input Documents/CR/Review/PO_SAG_CR_WEB_Review.xlsx
+++ b/Input Documents/CR/Review/PO_SAG_CR_WEB_Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Repos\sag\WEB_SWProcess_Documents\Input Documents\CR\Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F04AB0-210D-4BD0-918B-D537C61D1D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795BB8A4-74F5-415D-98FB-F8029802E525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="1872" windowWidth="12300" windowHeight="6180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>Entry Date</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t xml:space="preserve">points 3 &amp; 4 shall be removed </t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
@@ -502,8 +505,8 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -567,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="67.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -619,7 +622,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Input Documents/CR/Review/PO_SAG_CR_WEB_Review.xlsx
+++ b/Input Documents/CR/Review/PO_SAG_CR_WEB_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Repos\sag\WEB_SWProcess_Documents\Input Documents\CR\Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795BB8A4-74F5-415D-98FB-F8029802E525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23ADC7D-88F0-4528-A535-46D2C97DCDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>Entry Date</t>
   </si>
@@ -145,6 +145,21 @@
   </si>
   <si>
     <t>Closed</t>
+  </si>
+  <si>
+    <t>CR_REVIEW_008</t>
+  </si>
+  <si>
+    <t>V1.2</t>
+  </si>
+  <si>
+    <t>1//Document Status/author</t>
+  </si>
+  <si>
+    <t>author name didn't change although the document content has changed</t>
+  </si>
+  <si>
+    <t>author name shall be changed to the latest author name , in this case "Kottp"</t>
   </si>
 </sst>
 </file>
@@ -503,10 +518,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -703,7 +718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -729,33 +744,191 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+    <row r="9" spans="1:8" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="6">
+        <v>44850</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="H9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A2:H9">
+  <conditionalFormatting sqref="A2:H21">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>$H2 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H9">
+  <conditionalFormatting sqref="A2:H21">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>$H2= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H21" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Open,Closed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Input Documents/CR/Review/PO_SAG_CR_WEB_Review.xlsx
+++ b/Input Documents/CR/Review/PO_SAG_CR_WEB_Review.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Repos\sag\WEB_SWProcess_Documents\Input Documents\CR\Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Repos\SAG\WEB_SWProcess_Documents\Input Documents\CR\Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23ADC7D-88F0-4528-A535-46D2C97DCDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA2B401-D617-43CF-A3B0-700D898CF897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -520,8 +520,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -611,7 +611,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -767,7 +767,7 @@
         <v>45</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Input Documents/CR/Review/PO_SAG_CR_WEB_Review.xlsx
+++ b/Input Documents/CR/Review/PO_SAG_CR_WEB_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Repos\SAG\WEB_SWProcess_Documents\Input Documents\CR\Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA2B401-D617-43CF-A3B0-700D898CF897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83345025-6F79-40E0-90F1-F171485DE9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H5" sqref="H5:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -663,10 +663,10 @@
         <v>26</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="67.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="54" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -689,7 +689,7 @@
         <v>30</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="80.400000000000006" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -741,7 +741,7 @@
         <v>39</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Input Documents/CR/Review/PO_SAG_CR_WEB_Review.xlsx
+++ b/Input Documents/CR/Review/PO_SAG_CR_WEB_Review.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Repos\SAG\WEB_SWProcess_Documents\Input Documents\CR\Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship\SAG\WEB_SWProcess_Documents\Input Documents\CR\Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83345025-6F79-40E0-90F1-F171485DE9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>Entry Date</t>
   </si>
@@ -160,12 +159,24 @@
   </si>
   <si>
     <t>author name shall be changed to the latest author name , in this case "Kottp"</t>
+  </si>
+  <si>
+    <t>CR_REVIEW_009</t>
+  </si>
+  <si>
+    <t>1//Document Status</t>
+  </si>
+  <si>
+    <t>Approval levels are missing</t>
+  </si>
+  <si>
+    <t>Add approval levels Team Approval, Mentor Approval, Final Approval</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
@@ -514,14 +525,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -771,13 +782,27 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="6">
+        <v>44855</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="H10" s="5" t="s">
         <v>6</v>
       </c>
@@ -928,7 +953,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H21" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H21">
       <formula1>"Open,Closed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Input Documents/CR/Review/PO_SAG_CR_WEB_Review.xlsx
+++ b/Input Documents/CR/Review/PO_SAG_CR_WEB_Review.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship\SAG\WEB_SWProcess_Documents\Input Documents\CR\Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Repos\SAG\WEB_SWProcess_Documents\Input Documents\CR\Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642A4B67-572F-4906-8589-6F17E17BBDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,7 +177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
@@ -525,14 +526,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -781,7 +782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="31.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -804,7 +805,7 @@
         <v>49</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -953,7 +954,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H21" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Open,Closed"</formula1>
     </dataValidation>
   </dataValidations>
